--- a/biology/Histoire de la zoologie et de la botanique/William_Hornaday/William_Hornaday.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Hornaday/William_Hornaday.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Temple Hornaday (né le 1er décembre 1854, mort le 6 mars 1937) est un zoologiste et protecteur de la nature américain. Taxidermiste, il a révolutionné la présentation des musées d’histoire naturelle en reconstituant la faune dans son milieu naturel. Protecteur de la nature, il est crédité pour avoir sauvé le Bison d'Amérique et l’Otarie à fourrure d'Alaska de l'extinction.
 </t>
@@ -511,10 +523,12 @@
           <t>Vie personnelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">William Hornaday est né à Plainfield en Indiana, et fit ses études au Oskaloosa College, à l'Iowa State Agricultural College (maintenant l’Iowa State University) et en Europe.
-William Hornaday est mort à Stamford au Connecticut et est enterré à Greenwich au Connecticut[1].
+William Hornaday est mort à Stamford au Connecticut et est enterré à Greenwich au Connecticut.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Vie professionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a passé un an et demi, en 1877-1878 en Inde et à Ceylan, pour collecter des spécimens. En mai 1878, il atteint l’Asie du Sud-Est et a voyagé dans la péninsule Malaise et au Sarawak à Bornéo.
 Il a servi comme chef taxidermiste du Musée national de la Smithsonian Institution aux États-Unis en 1882-1890. Il a aidé à la fondation en 1889 du National Zoological Park de la Smithsonian Institution à Washington DC.
